--- a/ProII Automation Transfer/PROII Mapping Testing.xlsx
+++ b/ProII Automation Transfer/PROII Mapping Testing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gutierrj\Desktop\ProII Automation Transfer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://asptechinc-my.sharepoint.com/personal/juan_gutierrez_aspentech_com/Documents/FILES/DATA TRANSFER AUTOMATION/ProII/ProII Automation Transfer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90EF34A7-8782-456C-B36C-16B9C1F673A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{90EF34A7-8782-456C-B36C-16B9C1F673A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DB3A1EB-B789-4857-BA4C-8ED226701D87}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="913" activeTab="3" xr2:uid="{4765E60C-DCD2-43DC-85F2-54A729108221}"/>
+    <workbookView xWindow="28680" yWindow="1620" windowWidth="29040" windowHeight="15720" tabRatio="913" activeTab="12" xr2:uid="{4765E60C-DCD2-43DC-85F2-54A729108221}"/>
   </bookViews>
   <sheets>
     <sheet name="Simple HX" sheetId="1" r:id="rId1"/>
@@ -5432,6 +5432,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5461,12 +5467,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5721,15 +5721,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>530782</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>169214</xdr:rowOff>
+      <xdr:colOff>492682</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>54914</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5752,8 +5752,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7194550" y="4918075"/>
-          <a:ext cx="3997882" cy="6728764"/>
+          <a:off x="7505700" y="4597400"/>
+          <a:ext cx="3997882" cy="6697014"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5995,15 +5995,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>577850</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>445326</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>410401</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>140355</xdr:rowOff>
+      <xdr:rowOff>29230</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6026,8 +6026,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8791575" y="342900"/>
-          <a:ext cx="5922201" cy="4950480"/>
+          <a:off x="9798050" y="215900"/>
+          <a:ext cx="5928551" cy="4956830"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6040,14 +6040,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>92075</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>445157</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>162321</xdr:rowOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>9921</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6070,8 +6070,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8782050" y="7340600"/>
-          <a:ext cx="4712357" cy="2984896"/>
+          <a:off x="9220200" y="6416675"/>
+          <a:ext cx="4712357" cy="2927746"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6083,15 +6083,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>273050</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>340329</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>63859</xdr:rowOff>
+      <xdr:colOff>187929</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>25759</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6114,8 +6114,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13931900" y="7331075"/>
-          <a:ext cx="4334479" cy="2705459"/>
+          <a:off x="14217650" y="6711950"/>
+          <a:ext cx="4334479" cy="2648309"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6126,16 +6126,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1911350</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>578673</xdr:colOff>
+      <xdr:colOff>200848</xdr:colOff>
       <xdr:row>88</xdr:row>
-      <xdr:rowOff>73720</xdr:rowOff>
+      <xdr:rowOff>149920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6158,8 +6158,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8943975" y="11677650"/>
-          <a:ext cx="5903148" cy="5236270"/>
+          <a:off x="8997950" y="11684000"/>
+          <a:ext cx="5909498" cy="5229920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6170,15 +6170,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>111655</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>492655</xdr:colOff>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>38971</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6202,8 +6202,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15449550" y="11591925"/>
-          <a:ext cx="3807355" cy="6239746"/>
+          <a:off x="15049500" y="11334750"/>
+          <a:ext cx="3807355" cy="6230221"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6214,16 +6214,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>95251</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>459469</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>54429</xdr:rowOff>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>247174</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>611391</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>2274</xdr:rowOff>
+      <xdr:rowOff>46271</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6246,8 +6246,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19281322" y="54429"/>
-          <a:ext cx="3825852" cy="3580952"/>
+          <a:off x="19455040" y="95251"/>
+          <a:ext cx="3825851" cy="3325591"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6303,15 +6303,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>435429</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
+      <xdr:colOff>359229</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>29482</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>587274</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>86798</xdr:rowOff>
+      <xdr:colOff>507899</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>7423</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6334,8 +6334,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19621500" y="9307286"/>
-          <a:ext cx="4438095" cy="2304762"/>
+          <a:off x="19942629" y="8982982"/>
+          <a:ext cx="4415870" cy="2263941"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6635,16 +6635,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>44449</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>41274</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>12988</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>127864</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>41275</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>142063</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9814</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>58647</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6667,8 +6667,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8204199" y="1152524"/>
-          <a:ext cx="5483226" cy="8571689"/>
+          <a:off x="8775988" y="491546"/>
+          <a:ext cx="5452053" cy="8070328"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6679,16 +6679,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>365124</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>154489</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>105351</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>15943</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>339726</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>35071</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>79953</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>69707</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6711,8 +6711,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7289799" y="8307889"/>
-          <a:ext cx="5451476" cy="3493732"/>
+          <a:off x="8868351" y="9038716"/>
+          <a:ext cx="5429829" cy="3344218"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8093,30 +8093,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF4BB1A2-0DD0-4E3B-809A-8B2A338EB191}">
   <dimension ref="B1:F139"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
-    <col min="2" max="2" width="46.42578125" style="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.1796875" customWidth="1"/>
+    <col min="2" max="2" width="46.453125" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.26953125" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="88" t="s">
+      <c r="C1" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="88"/>
-      <c r="E1" s="89"/>
-    </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D1" s="90"/>
+      <c r="E1" s="91"/>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B2" s="74" t="s">
         <v>84</v>
       </c>
@@ -8131,7 +8131,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B3" s="35" t="s">
         <v>85</v>
       </c>
@@ -8141,7 +8141,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B4" s="35" t="s">
         <v>898</v>
       </c>
@@ -8150,7 +8150,7 @@
       </c>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B5" s="36" t="s">
         <v>97</v>
       </c>
@@ -8165,7 +8165,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B6" s="36" t="s">
         <v>96</v>
       </c>
@@ -8180,13 +8180,13 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B7" s="35"/>
       <c r="C7" s="8"/>
       <c r="D7" s="1"/>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B8" s="35"/>
       <c r="C8" s="9" t="s">
         <v>36</v>
@@ -8194,7 +8194,7 @@
       <c r="D8" s="1"/>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B9" s="36" t="s">
         <v>98</v>
       </c>
@@ -8206,7 +8206,7 @@
       </c>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B10" s="36" t="s">
         <v>98</v>
       </c>
@@ -8218,13 +8218,13 @@
       </c>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B11" s="35"/>
       <c r="C11" s="8"/>
       <c r="D11" s="1"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B12" s="35"/>
       <c r="C12" s="9" t="s">
         <v>37</v>
@@ -8232,7 +8232,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B13" s="75" t="s">
         <v>855</v>
       </c>
@@ -8244,7 +8244,7 @@
       </c>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B14" s="75" t="s">
         <v>856</v>
       </c>
@@ -8256,13 +8256,13 @@
       </c>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B15" s="35"/>
       <c r="C15" s="8"/>
       <c r="D15" s="1"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B16" s="35"/>
       <c r="C16" s="9" t="s">
         <v>38</v>
@@ -8270,7 +8270,7 @@
       <c r="D16" s="1"/>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" s="75" t="s">
         <v>857</v>
       </c>
@@ -8282,7 +8282,7 @@
       </c>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" s="75" t="s">
         <v>858</v>
       </c>
@@ -8294,13 +8294,13 @@
       </c>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B19" s="35"/>
       <c r="C19" s="8"/>
       <c r="D19" s="1"/>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20" s="36" t="s">
         <v>114</v>
       </c>
@@ -8312,7 +8312,7 @@
       </c>
       <c r="E20" s="10"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B21" s="74" t="s">
         <v>111</v>
       </c>
@@ -8326,7 +8326,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B22" s="73" t="s">
         <v>100</v>
       </c>
@@ -8340,7 +8340,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23" s="73" t="s">
         <v>94</v>
       </c>
@@ -8354,7 +8354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24" s="74" t="s">
         <v>107</v>
       </c>
@@ -8368,7 +8368,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B25" s="76" t="s">
         <v>117</v>
       </c>
@@ -8380,7 +8380,7 @@
       </c>
       <c r="E25" s="10"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B26" s="74" t="s">
         <v>113</v>
       </c>
@@ -8394,7 +8394,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B27" s="73" t="s">
         <v>101</v>
       </c>
@@ -8408,7 +8408,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B28" s="73" t="s">
         <v>95</v>
       </c>
@@ -8422,7 +8422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B29" s="74" t="s">
         <v>109</v>
       </c>
@@ -8436,7 +8436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B30" s="36" t="s">
         <v>114</v>
       </c>
@@ -8450,7 +8450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B31" s="36" t="s">
         <v>114</v>
       </c>
@@ -8464,7 +8464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B32" s="73" t="s">
         <v>82</v>
       </c>
@@ -8478,7 +8478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B33" s="36" t="s">
         <v>114</v>
       </c>
@@ -8490,7 +8490,7 @@
       </c>
       <c r="E33" s="10"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B34" s="36" t="s">
         <v>114</v>
       </c>
@@ -8504,7 +8504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B35" s="36" t="s">
         <v>114</v>
       </c>
@@ -8518,7 +8518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B36" s="36" t="s">
         <v>114</v>
       </c>
@@ -8532,7 +8532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B37" s="74" t="s">
         <v>110</v>
       </c>
@@ -8546,7 +8546,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B38" s="73" t="s">
         <v>92</v>
       </c>
@@ -8560,7 +8560,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B39" s="73" t="s">
         <v>91</v>
       </c>
@@ -8574,7 +8574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B40" s="74" t="s">
         <v>106</v>
       </c>
@@ -8588,7 +8588,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B41" s="74" t="s">
         <v>112</v>
       </c>
@@ -8602,7 +8602,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B42" s="73" t="s">
         <v>99</v>
       </c>
@@ -8616,7 +8616,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B43" s="73" t="s">
         <v>93</v>
       </c>
@@ -8630,7 +8630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B44" s="74" t="s">
         <v>108</v>
       </c>
@@ -8644,7 +8644,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B45" s="76" t="s">
         <v>116</v>
       </c>
@@ -8656,7 +8656,7 @@
       </c>
       <c r="E45" s="10"/>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B46" s="36" t="s">
         <v>114</v>
       </c>
@@ -8670,7 +8670,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B47" s="36" t="s">
         <v>114</v>
       </c>
@@ -8684,7 +8684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B48" s="73" t="s">
         <v>86</v>
       </c>
@@ -8698,7 +8698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B49" s="74" t="s">
         <v>119</v>
       </c>
@@ -8710,7 +8710,7 @@
       </c>
       <c r="E49" s="10"/>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B50" s="74" t="s">
         <v>120</v>
       </c>
@@ -8722,7 +8722,7 @@
       </c>
       <c r="E50" s="10"/>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B51" s="73" t="s">
         <v>88</v>
       </c>
@@ -8734,7 +8734,7 @@
       </c>
       <c r="E51" s="10"/>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B52" s="73" t="s">
         <v>87</v>
       </c>
@@ -8748,7 +8748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B53" s="75" t="s">
         <v>118</v>
       </c>
@@ -8760,7 +8760,7 @@
       </c>
       <c r="E53" s="10"/>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B54" s="36" t="s">
         <v>114</v>
       </c>
@@ -8772,7 +8772,7 @@
       </c>
       <c r="E54" s="10"/>
     </row>
-    <row r="55" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B55" s="83" t="s">
         <v>83</v>
       </c>
@@ -8786,351 +8786,351 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B59" s="69" t="s">
         <v>894</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B60" s="71" t="s">
         <v>895</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B61" s="70" t="s">
         <v>896</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B62" s="72" t="s">
         <v>897</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
     </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
     </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
     </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
     </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
     </row>
-    <row r="120" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
     </row>
-    <row r="121" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
     </row>
-    <row r="122" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
     </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
     </row>
-    <row r="124" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
     </row>
-    <row r="125" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
     </row>
-    <row r="126" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
     </row>
-    <row r="127" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
     </row>
-    <row r="128" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
     </row>
-    <row r="129" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
     </row>
-    <row r="130" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
     </row>
-    <row r="131" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
     </row>
-    <row r="132" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
     </row>
-    <row r="133" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
     </row>
-    <row r="134" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
     </row>
-    <row r="135" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
     </row>
-    <row r="136" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
     </row>
-    <row r="137" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
     </row>
-    <row r="138" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
     </row>
-    <row r="139" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
     </row>
@@ -9152,29 +9152,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72DBE843-642D-4B72-9936-27A1AEAF0925}">
   <dimension ref="A1:D136"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="A4:C4"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R58" sqref="R58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.5703125" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.81640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.54296875" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" style="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="94"/>
-      <c r="D1" s="95"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C1" s="96"/>
+      <c r="D1" s="97"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="34" t="s">
         <v>503</v>
       </c>
@@ -9186,13 +9186,13 @@
       </c>
       <c r="D2" s="42"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="35" t="s">
         <v>502</v>
       </c>
       <c r="D3" s="30"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="35" t="s">
         <v>898</v>
       </c>
@@ -9204,7 +9204,7 @@
       </c>
       <c r="D4" s="30"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="36" t="s">
         <v>114</v>
       </c>
@@ -9216,12 +9216,12 @@
       </c>
       <c r="D5" s="30"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="36"/>
       <c r="C6" s="51"/>
       <c r="D6" s="30"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="36" t="s">
         <v>114</v>
       </c>
@@ -9233,7 +9233,7 @@
       </c>
       <c r="D7" s="30"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="35" t="s">
         <v>680</v>
       </c>
@@ -9245,7 +9245,7 @@
       </c>
       <c r="D8" s="30"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="35" t="s">
         <v>663</v>
       </c>
@@ -9259,7 +9259,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="35" t="s">
         <v>661</v>
       </c>
@@ -9273,7 +9273,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="21" t="s">
         <v>114</v>
       </c>
@@ -9287,7 +9287,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="21" t="s">
         <v>114</v>
       </c>
@@ -9301,7 +9301,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="35" t="s">
         <v>673</v>
       </c>
@@ -9313,7 +9313,7 @@
       </c>
       <c r="D13" s="30"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="21" t="s">
         <v>598</v>
       </c>
@@ -9325,7 +9325,7 @@
       </c>
       <c r="D14" s="30"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="35" t="s">
         <v>678</v>
       </c>
@@ -9339,7 +9339,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="35" t="s">
         <v>677</v>
       </c>
@@ -9353,7 +9353,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="35" t="s">
         <v>679</v>
       </c>
@@ -9367,7 +9367,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="35" t="s">
         <v>669</v>
       </c>
@@ -9381,7 +9381,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="21" t="s">
         <v>114</v>
       </c>
@@ -9395,7 +9395,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="35" t="s">
         <v>670</v>
       </c>
@@ -9409,7 +9409,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="35" t="s">
         <v>659</v>
       </c>
@@ -9423,7 +9423,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="35" t="s">
         <v>671</v>
       </c>
@@ -9437,7 +9437,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="35" t="s">
         <v>672</v>
       </c>
@@ -9451,7 +9451,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="35" t="s">
         <v>664</v>
       </c>
@@ -9463,7 +9463,7 @@
       </c>
       <c r="D24" s="30"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="36" t="s">
         <v>114</v>
       </c>
@@ -9477,7 +9477,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="35" t="s">
         <v>662</v>
       </c>
@@ -9491,7 +9491,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="35" t="s">
         <v>676</v>
       </c>
@@ -9505,7 +9505,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="35" t="s">
         <v>674</v>
       </c>
@@ -9519,7 +9519,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="21" t="s">
         <v>114</v>
       </c>
@@ -9531,7 +9531,7 @@
       </c>
       <c r="D29" s="30"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="35" t="s">
         <v>675</v>
       </c>
@@ -9545,7 +9545,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="21" t="s">
         <v>114</v>
       </c>
@@ -9559,7 +9559,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="21" t="s">
         <v>114</v>
       </c>
@@ -9573,7 +9573,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="35" t="s">
         <v>668</v>
       </c>
@@ -9587,7 +9587,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="36" t="s">
         <v>667</v>
       </c>
@@ -9601,7 +9601,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="38" t="s">
         <v>660</v>
       </c>
@@ -9615,18 +9615,18 @@
         <v>580</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="44" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="44" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="34" t="s">
         <v>681</v>
       </c>
@@ -9640,7 +9640,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="35" t="s">
         <v>682</v>
       </c>
@@ -9654,7 +9654,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="35" t="s">
         <v>683</v>
       </c>
@@ -9668,7 +9668,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="35" t="s">
         <v>684</v>
       </c>
@@ -9682,7 +9682,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="21" t="s">
         <v>114</v>
       </c>
@@ -9696,7 +9696,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="49" t="s">
         <v>114</v>
       </c>
@@ -9710,109 +9710,109 @@
         <v>127</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C46" s="51"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C47" s="51"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C48" s="51"/>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C49" s="51"/>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C50" s="51"/>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C51" s="51"/>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C52" s="51"/>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C53" s="51"/>
     </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C93" s="51"/>
     </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C94" s="51"/>
     </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C95" s="51"/>
     </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C96" s="51"/>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C97" s="51"/>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C98" s="51"/>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C99" s="51"/>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C100" s="51"/>
     </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C101" s="51"/>
     </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C102" s="51"/>
     </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C110" s="51"/>
     </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C112" s="51"/>
     </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C113" s="51"/>
     </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C114" s="51"/>
     </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C115" s="51"/>
     </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C117" s="51"/>
     </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C118" s="51"/>
     </row>
-    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C119" s="51"/>
     </row>
-    <row r="126" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C126" s="51"/>
     </row>
-    <row r="128" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C128" s="51"/>
     </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C129" s="51"/>
     </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C130" s="51"/>
     </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C131" s="51"/>
     </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C133" s="51"/>
     </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C134" s="51"/>
     </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C135" s="51"/>
     </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C136" s="51"/>
     </row>
   </sheetData>
@@ -9833,29 +9833,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED0AB00E-92EC-4333-818E-063B3B4C6FEA}">
   <dimension ref="A1:D134"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="A147" sqref="A5:A147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.5703125" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.81640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.54296875" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" style="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="91" t="s">
+      <c r="B1" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="91"/>
-      <c r="D1" s="92"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C1" s="93"/>
+      <c r="D1" s="94"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="34" t="s">
         <v>503</v>
       </c>
@@ -9867,13 +9867,13 @@
       </c>
       <c r="D2" s="42"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="35" t="s">
         <v>502</v>
       </c>
       <c r="D3" s="30"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="35" t="s">
         <v>898</v>
       </c>
@@ -9885,7 +9885,7 @@
       </c>
       <c r="D4" s="30"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="36" t="s">
         <v>114</v>
       </c>
@@ -9897,12 +9897,12 @@
       </c>
       <c r="D5" s="30"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="36"/>
       <c r="C6" s="51"/>
       <c r="D6" s="30"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="23" t="s">
         <v>713</v>
       </c>
@@ -9914,7 +9914,7 @@
       </c>
       <c r="D7" s="30"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="23" t="s">
         <v>714</v>
       </c>
@@ -9928,7 +9928,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="35" t="s">
         <v>715</v>
       </c>
@@ -9942,7 +9942,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="21" t="s">
         <v>114</v>
       </c>
@@ -9956,7 +9956,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="21" t="s">
         <v>114</v>
       </c>
@@ -9970,7 +9970,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="35" t="s">
         <v>716</v>
       </c>
@@ -9982,7 +9982,7 @@
       </c>
       <c r="D12" s="30"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="35" t="s">
         <v>717</v>
       </c>
@@ -9994,7 +9994,7 @@
       </c>
       <c r="D13" s="30"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="21" t="s">
         <v>598</v>
       </c>
@@ -10006,7 +10006,7 @@
       </c>
       <c r="D14" s="30"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="35" t="s">
         <v>718</v>
       </c>
@@ -10020,7 +10020,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="35" t="s">
         <v>719</v>
       </c>
@@ -10034,7 +10034,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="23" t="s">
         <v>720</v>
       </c>
@@ -10048,7 +10048,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="21" t="s">
         <v>114</v>
       </c>
@@ -10060,7 +10060,7 @@
       </c>
       <c r="D18" s="30"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="35" t="s">
         <v>721</v>
       </c>
@@ -10074,7 +10074,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="21" t="s">
         <v>114</v>
       </c>
@@ -10088,7 +10088,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="37" t="s">
         <v>722</v>
       </c>
@@ -10102,7 +10102,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="36" t="s">
         <v>114</v>
       </c>
@@ -10116,7 +10116,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="35" t="s">
         <v>723</v>
       </c>
@@ -10130,7 +10130,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="35" t="s">
         <v>724</v>
       </c>
@@ -10144,7 +10144,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="35" t="s">
         <v>725</v>
       </c>
@@ -10158,7 +10158,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="35" t="s">
         <v>726</v>
       </c>
@@ -10170,7 +10170,7 @@
       </c>
       <c r="D26" s="30"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="36" t="s">
         <v>114</v>
       </c>
@@ -10182,7 +10182,7 @@
       </c>
       <c r="D27" s="30"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="36" t="s">
         <v>114</v>
       </c>
@@ -10196,7 +10196,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="35" t="s">
         <v>727</v>
       </c>
@@ -10210,7 +10210,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="35" t="s">
         <v>728</v>
       </c>
@@ -10224,7 +10224,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="21" t="s">
         <v>114</v>
       </c>
@@ -10236,7 +10236,7 @@
       </c>
       <c r="D31" s="30"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="35" t="s">
         <v>729</v>
       </c>
@@ -10250,7 +10250,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="21" t="s">
         <v>114</v>
       </c>
@@ -10264,7 +10264,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="21" t="s">
         <v>114</v>
       </c>
@@ -10278,7 +10278,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="35" t="s">
         <v>730</v>
       </c>
@@ -10292,7 +10292,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="38" t="s">
         <v>731</v>
       </c>
@@ -10306,8 +10306,8 @@
         <v>580</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="34" t="s">
         <v>732</v>
       </c>
@@ -10321,7 +10321,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="35" t="s">
         <v>733</v>
       </c>
@@ -10335,7 +10335,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="35" t="s">
         <v>734</v>
       </c>
@@ -10349,7 +10349,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="35" t="s">
         <v>735</v>
       </c>
@@ -10363,7 +10363,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="21" t="s">
         <v>114</v>
       </c>
@@ -10377,7 +10377,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="49" t="s">
         <v>114</v>
       </c>
@@ -10391,82 +10391,82 @@
         <v>127</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C44" s="51"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C45" s="51"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C48" s="51"/>
     </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C91" s="51"/>
     </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C92" s="51"/>
     </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C96" s="51"/>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C97" s="51"/>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C98" s="51"/>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C99" s="51"/>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C100" s="51"/>
     </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C108" s="51"/>
     </row>
-    <row r="111" spans="3:3" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:3" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C111" s="51"/>
     </row>
-    <row r="112" spans="3:3" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:3" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C112" s="51"/>
     </row>
-    <row r="113" spans="3:3" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:3" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C113" s="51"/>
     </row>
-    <row r="115" spans="3:3" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:3" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C115" s="51"/>
     </row>
-    <row r="116" spans="3:3" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:3" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C116" s="51"/>
     </row>
-    <row r="117" spans="3:3" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:3" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C117" s="51"/>
     </row>
-    <row r="124" spans="3:3" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:3" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C124" s="51"/>
     </row>
-    <row r="126" spans="3:3" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:3" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C126" s="51"/>
     </row>
-    <row r="127" spans="3:3" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:3" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C127" s="51"/>
     </row>
-    <row r="128" spans="3:3" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:3" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C128" s="51"/>
     </row>
-    <row r="129" spans="3:3" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:3" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C129" s="51"/>
     </row>
-    <row r="131" spans="3:3" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:3" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C131" s="51"/>
     </row>
-    <row r="132" spans="3:3" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:3" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C132" s="51"/>
     </row>
-    <row r="133" spans="3:3" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:3" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C133" s="51"/>
     </row>
-    <row r="134" spans="3:3" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:3" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C134" s="51"/>
     </row>
   </sheetData>
@@ -10487,29 +10487,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24D896EC-4A9E-4A5E-BC8B-552C8B4CBBEC}">
   <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.26953125" style="1" customWidth="1"/>
     <col min="3" max="3" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="91" t="s">
+      <c r="B1" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="91"/>
-      <c r="D1" s="92"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C1" s="93"/>
+      <c r="D1" s="94"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="34" t="s">
         <v>753</v>
       </c>
@@ -10521,7 +10521,7 @@
       </c>
       <c r="D2" s="42"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="35" t="s">
         <v>754</v>
       </c>
@@ -10529,7 +10529,7 @@
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="35" t="s">
         <v>898</v>
       </c>
@@ -10541,14 +10541,14 @@
       </c>
       <c r="D4" s="30"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="35"/>
       <c r="B5" s="1" t="s">
         <v>745</v>
       </c>
       <c r="D5" s="30"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="36"/>
       <c r="B6" s="1" t="s">
         <v>736</v>
@@ -10560,7 +10560,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="36"/>
       <c r="B7" s="1" t="s">
         <v>737</v>
@@ -10572,7 +10572,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="23"/>
       <c r="B8" s="1" t="s">
         <v>738</v>
@@ -10584,7 +10584,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="23"/>
       <c r="B9" s="1" t="s">
         <v>739</v>
@@ -10596,7 +10596,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="59"/>
       <c r="B10" s="1" t="s">
         <v>740</v>
@@ -10608,7 +10608,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="59"/>
       <c r="B11" s="1" t="s">
         <v>741</v>
@@ -10620,7 +10620,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="59"/>
       <c r="B12" s="1" t="s">
         <v>742</v>
@@ -10632,7 +10632,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="59"/>
       <c r="B13" s="1" t="s">
         <v>743</v>
@@ -10644,7 +10644,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="59"/>
       <c r="B14" s="1" t="s">
         <v>744</v>
@@ -10656,18 +10656,18 @@
         <v>227</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="59"/>
       <c r="D15" s="7"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="59"/>
       <c r="B16" s="1" t="s">
         <v>746</v>
       </c>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="59"/>
       <c r="B17" s="1" t="s">
         <v>736</v>
@@ -10679,7 +10679,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="59"/>
       <c r="B18" s="1" t="s">
         <v>737</v>
@@ -10691,7 +10691,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="59"/>
       <c r="B19" s="1" t="s">
         <v>738</v>
@@ -10703,7 +10703,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="59"/>
       <c r="B20" s="1" t="s">
         <v>739</v>
@@ -10715,7 +10715,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="59"/>
       <c r="B21" s="1" t="s">
         <v>740</v>
@@ -10727,7 +10727,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="59"/>
       <c r="B22" s="1" t="s">
         <v>741</v>
@@ -10739,7 +10739,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="59"/>
       <c r="B23" s="1" t="s">
         <v>742</v>
@@ -10751,7 +10751,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="59"/>
       <c r="B24" s="1" t="s">
         <v>743</v>
@@ -10763,7 +10763,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="59"/>
       <c r="B25" s="1" t="s">
         <v>744</v>
@@ -10775,18 +10775,18 @@
         <v>227</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="59"/>
       <c r="D26" s="7"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="59"/>
       <c r="B27" s="1" t="s">
         <v>747</v>
       </c>
       <c r="D27" s="7"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="59"/>
       <c r="B28" s="1" t="s">
         <v>736</v>
@@ -10798,7 +10798,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="59"/>
       <c r="B29" s="1" t="s">
         <v>737</v>
@@ -10810,7 +10810,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="59"/>
       <c r="B30" s="1" t="s">
         <v>738</v>
@@ -10822,7 +10822,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="59"/>
       <c r="B31" s="1" t="s">
         <v>739</v>
@@ -10834,7 +10834,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="59"/>
       <c r="B32" s="1" t="s">
         <v>740</v>
@@ -10846,7 +10846,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="59"/>
       <c r="B33" s="1" t="s">
         <v>741</v>
@@ -10858,7 +10858,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="59"/>
       <c r="B34" s="1" t="s">
         <v>742</v>
@@ -10870,7 +10870,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="59"/>
       <c r="B35" s="1" t="s">
         <v>743</v>
@@ -10882,7 +10882,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="59"/>
       <c r="B36" s="1" t="s">
         <v>744</v>
@@ -10894,18 +10894,18 @@
         <v>227</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="59"/>
       <c r="D37" s="7"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="59"/>
       <c r="B38" s="1" t="s">
         <v>748</v>
       </c>
       <c r="D38" s="7"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="59"/>
       <c r="B39" s="1" t="s">
         <v>736</v>
@@ -10917,7 +10917,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="59"/>
       <c r="B40" s="1" t="s">
         <v>737</v>
@@ -10929,7 +10929,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="59"/>
       <c r="B41" s="1" t="s">
         <v>738</v>
@@ -10941,7 +10941,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="59"/>
       <c r="B42" s="1" t="s">
         <v>739</v>
@@ -10953,7 +10953,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="59"/>
       <c r="B43" s="1" t="s">
         <v>740</v>
@@ -10965,7 +10965,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="59"/>
       <c r="B44" s="1" t="s">
         <v>741</v>
@@ -10977,7 +10977,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="59"/>
       <c r="B45" s="1" t="s">
         <v>742</v>
@@ -10989,7 +10989,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="59"/>
       <c r="B46" s="1" t="s">
         <v>743</v>
@@ -11001,7 +11001,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="59"/>
       <c r="B47" s="1" t="s">
         <v>744</v>
@@ -11013,18 +11013,18 @@
         <v>227</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="59"/>
       <c r="D48" s="7"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="59"/>
       <c r="B49" s="1" t="s">
         <v>749</v>
       </c>
       <c r="D49" s="7"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="59"/>
       <c r="B50" s="1" t="s">
         <v>736</v>
@@ -11036,7 +11036,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="59"/>
       <c r="B51" s="1" t="s">
         <v>737</v>
@@ -11048,7 +11048,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="59"/>
       <c r="B52" s="1" t="s">
         <v>738</v>
@@ -11060,7 +11060,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="59"/>
       <c r="B53" s="1" t="s">
         <v>739</v>
@@ -11072,7 +11072,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="59"/>
       <c r="B54" s="1" t="s">
         <v>740</v>
@@ -11084,7 +11084,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="59"/>
       <c r="B55" s="1" t="s">
         <v>741</v>
@@ -11096,7 +11096,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="59"/>
       <c r="B56" s="1" t="s">
         <v>742</v>
@@ -11108,7 +11108,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="59"/>
       <c r="B57" s="1" t="s">
         <v>743</v>
@@ -11120,7 +11120,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="59"/>
       <c r="B58" s="1" t="s">
         <v>744</v>
@@ -11132,18 +11132,18 @@
         <v>227</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="59"/>
       <c r="D59" s="7"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="59"/>
       <c r="B60" s="1" t="s">
         <v>750</v>
       </c>
       <c r="D60" s="7"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="59"/>
       <c r="B61" s="1" t="s">
         <v>736</v>
@@ -11155,7 +11155,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="59"/>
       <c r="B62" s="1" t="s">
         <v>737</v>
@@ -11167,7 +11167,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="59"/>
       <c r="B63" s="1" t="s">
         <v>738</v>
@@ -11179,7 +11179,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="59"/>
       <c r="B64" s="1" t="s">
         <v>739</v>
@@ -11191,7 +11191,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="59"/>
       <c r="B65" s="1" t="s">
         <v>740</v>
@@ -11203,7 +11203,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="59"/>
       <c r="B66" s="1" t="s">
         <v>741</v>
@@ -11215,7 +11215,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="59"/>
       <c r="B67" s="1" t="s">
         <v>742</v>
@@ -11227,7 +11227,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="59"/>
       <c r="B68" s="1" t="s">
         <v>743</v>
@@ -11239,7 +11239,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="59"/>
       <c r="B69" s="1" t="s">
         <v>744</v>
@@ -11251,18 +11251,18 @@
         <v>227</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="59"/>
       <c r="D70" s="7"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="59"/>
       <c r="B71" s="1" t="s">
         <v>751</v>
       </c>
       <c r="D71" s="7"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="59"/>
       <c r="B72" s="1" t="s">
         <v>736</v>
@@ -11274,7 +11274,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="59"/>
       <c r="B73" s="1" t="s">
         <v>737</v>
@@ -11286,7 +11286,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="59"/>
       <c r="B74" s="1" t="s">
         <v>738</v>
@@ -11298,7 +11298,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="59"/>
       <c r="B75" s="1" t="s">
         <v>739</v>
@@ -11310,7 +11310,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="59"/>
       <c r="B76" s="1" t="s">
         <v>740</v>
@@ -11322,7 +11322,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="59"/>
       <c r="B77" s="1" t="s">
         <v>741</v>
@@ -11334,7 +11334,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="59"/>
       <c r="B78" s="1" t="s">
         <v>742</v>
@@ -11346,7 +11346,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="59"/>
       <c r="B79" s="1" t="s">
         <v>743</v>
@@ -11358,7 +11358,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="59"/>
       <c r="B80" s="1" t="s">
         <v>744</v>
@@ -11370,18 +11370,18 @@
         <v>227</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="59"/>
       <c r="D81" s="7"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="59"/>
       <c r="B82" s="1" t="s">
         <v>752</v>
       </c>
       <c r="D82" s="7"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="59"/>
       <c r="B83" s="1" t="s">
         <v>736</v>
@@ -11393,7 +11393,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="59"/>
       <c r="B84" s="1" t="s">
         <v>737</v>
@@ -11405,7 +11405,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="59"/>
       <c r="B85" s="1" t="s">
         <v>738</v>
@@ -11417,7 +11417,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="59"/>
       <c r="B86" s="1" t="s">
         <v>739</v>
@@ -11429,7 +11429,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="59"/>
       <c r="B87" s="1" t="s">
         <v>740</v>
@@ -11441,7 +11441,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="59"/>
       <c r="B88" s="1" t="s">
         <v>741</v>
@@ -11453,7 +11453,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="59"/>
       <c r="B89" s="1" t="s">
         <v>742</v>
@@ -11465,7 +11465,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="59"/>
       <c r="B90" s="1" t="s">
         <v>743</v>
@@ -11477,7 +11477,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="60"/>
       <c r="B91" s="12" t="s">
         <v>744</v>
@@ -11504,29 +11504,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{615C1A5D-A74A-4B4C-8D80-A98398C4CE02}">
   <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T59" sqref="T59"/>
+    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="47.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.453125" style="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.28515625" style="28" customWidth="1"/>
+    <col min="4" max="4" width="30.26953125" style="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="96"/>
-      <c r="D1" s="97"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C1" s="98"/>
+      <c r="D1" s="99"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="34" t="s">
         <v>780</v>
       </c>
@@ -11538,7 +11538,7 @@
       </c>
       <c r="D2" s="42"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="35" t="s">
         <v>781</v>
       </c>
@@ -11550,11 +11550,11 @@
       </c>
       <c r="D3" s="30"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="35"/>
       <c r="D4" s="30"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="21" t="s">
         <v>97</v>
       </c>
@@ -11566,7 +11566,7 @@
       </c>
       <c r="D5" s="30"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="21" t="s">
         <v>96</v>
       </c>
@@ -11578,11 +11578,11 @@
       </c>
       <c r="D6" s="30"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="36"/>
       <c r="D7" s="30"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="36" t="s">
         <v>98</v>
       </c>
@@ -11594,18 +11594,18 @@
       </c>
       <c r="D8" s="30"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="35"/>
       <c r="D9" s="30"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="35"/>
       <c r="B10" s="20" t="s">
         <v>146</v>
       </c>
       <c r="D10" s="30"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="37" t="s">
         <v>777</v>
       </c>
@@ -11617,18 +11617,18 @@
       </c>
       <c r="D11" s="30"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="35"/>
       <c r="D12" s="30"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="35"/>
       <c r="B13" s="20" t="s">
         <v>147</v>
       </c>
       <c r="D13" s="30"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="37" t="s">
         <v>778</v>
       </c>
@@ -11640,7 +11640,7 @@
       </c>
       <c r="D14" s="30"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="37" t="s">
         <v>779</v>
       </c>
@@ -11652,13 +11652,13 @@
       </c>
       <c r="D15" s="30"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="35"/>
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
       <c r="D16" s="30"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="35" t="s">
         <v>782</v>
       </c>
@@ -11670,7 +11670,7 @@
       </c>
       <c r="D17" s="30"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="36" t="s">
         <v>114</v>
       </c>
@@ -11682,7 +11682,7 @@
       </c>
       <c r="D18" s="30"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="36" t="s">
         <v>98</v>
       </c>
@@ -11694,7 +11694,7 @@
       </c>
       <c r="D19" s="30"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="36" t="s">
         <v>98</v>
       </c>
@@ -11706,7 +11706,7 @@
       </c>
       <c r="D20" s="30"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="36" t="s">
         <v>114</v>
       </c>
@@ -11718,7 +11718,7 @@
       </c>
       <c r="D21" s="30"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="35" t="s">
         <v>783</v>
       </c>
@@ -11730,7 +11730,7 @@
       </c>
       <c r="D22" s="30"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="36" t="s">
         <v>114</v>
       </c>
@@ -11742,7 +11742,7 @@
       </c>
       <c r="D23" s="30"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="36" t="s">
         <v>114</v>
       </c>
@@ -11754,7 +11754,7 @@
       </c>
       <c r="D24" s="30"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="36" t="s">
         <v>114</v>
       </c>
@@ -11766,7 +11766,7 @@
       </c>
       <c r="D25" s="30"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="35" t="s">
         <v>806</v>
       </c>
@@ -11780,7 +11780,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="35" t="s">
         <v>804</v>
       </c>
@@ -11794,7 +11794,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="35" t="s">
         <v>805</v>
       </c>
@@ -11808,7 +11808,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="36" t="s">
         <v>114</v>
       </c>
@@ -11820,7 +11820,7 @@
       </c>
       <c r="D29" s="30"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="35" t="s">
         <v>807</v>
       </c>
@@ -11834,7 +11834,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="35" t="s">
         <v>808</v>
       </c>
@@ -11848,7 +11848,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="35" t="s">
         <v>810</v>
       </c>
@@ -11862,7 +11862,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="36" t="s">
         <v>114</v>
       </c>
@@ -11876,7 +11876,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="35" t="s">
         <v>815</v>
       </c>
@@ -11890,7 +11890,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="36" t="s">
         <v>98</v>
       </c>
@@ -11902,7 +11902,7 @@
       </c>
       <c r="D35" s="30"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="36" t="s">
         <v>98</v>
       </c>
@@ -11914,18 +11914,18 @@
       </c>
       <c r="D36" s="30"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="36"/>
       <c r="D37" s="30"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="35"/>
       <c r="B38" s="1" t="s">
         <v>799</v>
       </c>
       <c r="D38" s="30"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="35" t="s">
         <v>806</v>
       </c>
@@ -11939,7 +11939,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="38" t="s">
         <v>807</v>
       </c>
@@ -11953,18 +11953,18 @@
         <v>583</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="B42" s="96" t="s">
+      <c r="B42" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="96"/>
-      <c r="D42" s="97"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C42" s="98"/>
+      <c r="D42" s="99"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="34"/>
       <c r="B43" s="4" t="s">
         <v>813</v>
@@ -11974,7 +11974,7 @@
       </c>
       <c r="D43" s="42"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="35"/>
       <c r="B44" s="28" t="s">
         <v>34</v>
@@ -11984,12 +11984,12 @@
       </c>
       <c r="D44" s="30"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="35"/>
       <c r="B45" s="28"/>
       <c r="D45" s="30"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="35" t="s">
         <v>850</v>
       </c>
@@ -12003,7 +12003,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="35" t="s">
         <v>851</v>
       </c>
@@ -12017,7 +12017,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="35" t="s">
         <v>852</v>
       </c>
@@ -12031,11 +12031,11 @@
         <v>583</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="35"/>
       <c r="D49" s="30"/>
     </row>
-    <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="41" t="s">
         <v>114</v>
       </c>
@@ -12047,18 +12047,18 @@
       </c>
       <c r="D50" s="32"/>
     </row>
-    <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="52" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="52" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="B52" s="96" t="s">
+      <c r="B52" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="C52" s="96"/>
-      <c r="D52" s="97"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C52" s="98"/>
+      <c r="D52" s="99"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="34"/>
       <c r="B53" s="46" t="s">
         <v>32</v>
@@ -12068,7 +12068,7 @@
       </c>
       <c r="D53" s="42"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="35"/>
       <c r="B54" s="28" t="s">
         <v>34</v>
@@ -12078,11 +12078,11 @@
       </c>
       <c r="D54" s="30"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="35"/>
       <c r="D55" s="30"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="35" t="s">
         <v>850</v>
       </c>
@@ -12096,7 +12096,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="35" t="s">
         <v>851</v>
       </c>
@@ -12110,7 +12110,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="35" t="s">
         <v>853</v>
       </c>
@@ -12124,7 +12124,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="35" t="s">
         <v>854</v>
       </c>
@@ -12138,7 +12138,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="35"/>
       <c r="B60" s="1" t="s">
         <v>484</v>
@@ -12148,7 +12148,7 @@
       </c>
       <c r="D60" s="30"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="35"/>
       <c r="B61" s="1" t="s">
         <v>657</v>
@@ -12160,7 +12160,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="35"/>
       <c r="B62" s="1" t="s">
         <v>563</v>
@@ -12172,7 +12172,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="35"/>
       <c r="B63" s="1" t="s">
         <v>832</v>
@@ -12184,7 +12184,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="35"/>
       <c r="B64" s="1" t="s">
         <v>833</v>
@@ -12196,7 +12196,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="35"/>
       <c r="B65" s="1" t="s">
         <v>834</v>
@@ -12208,7 +12208,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="35"/>
       <c r="B66" s="1" t="s">
         <v>821</v>
@@ -12220,7 +12220,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="35"/>
       <c r="B67" s="1" t="s">
         <v>835</v>
@@ -12230,7 +12230,7 @@
       </c>
       <c r="D67" s="30"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="35"/>
       <c r="B68" s="1" t="s">
         <v>836</v>
@@ -12240,7 +12240,7 @@
       </c>
       <c r="D68" s="30"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="35"/>
       <c r="B69" s="1" t="s">
         <v>484</v>
@@ -12250,7 +12250,7 @@
       </c>
       <c r="D69" s="30"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="35"/>
       <c r="B70" s="1" t="s">
         <v>837</v>
@@ -12262,7 +12262,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="35"/>
       <c r="B71" s="1" t="s">
         <v>838</v>
@@ -12274,7 +12274,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="35"/>
       <c r="B72" s="1" t="s">
         <v>651</v>
@@ -12286,7 +12286,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="35"/>
       <c r="B73" s="1" t="s">
         <v>545</v>
@@ -12298,7 +12298,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="35"/>
       <c r="B74" s="1" t="s">
         <v>657</v>
@@ -12310,7 +12310,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="35"/>
       <c r="B75" s="1" t="s">
         <v>656</v>
@@ -12322,7 +12322,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="35"/>
       <c r="B76" s="1" t="s">
         <v>839</v>
@@ -12334,7 +12334,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="35"/>
       <c r="B77" s="1" t="s">
         <v>563</v>
@@ -12346,7 +12346,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="35"/>
       <c r="B78" s="1" t="s">
         <v>840</v>
@@ -12356,7 +12356,7 @@
       </c>
       <c r="D78" s="30"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="35"/>
       <c r="B79" s="1" t="s">
         <v>841</v>
@@ -12366,7 +12366,7 @@
       </c>
       <c r="D79" s="30"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="35"/>
       <c r="B80" s="1" t="s">
         <v>842</v>
@@ -12376,7 +12376,7 @@
       </c>
       <c r="D80" s="30"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="35"/>
       <c r="B81" s="1" t="s">
         <v>843</v>
@@ -12386,7 +12386,7 @@
       </c>
       <c r="D81" s="30"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="35"/>
       <c r="B82" s="1" t="s">
         <v>844</v>
@@ -12398,7 +12398,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="35"/>
       <c r="B83" s="1" t="s">
         <v>845</v>
@@ -12410,7 +12410,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="35"/>
       <c r="B84" s="1" t="s">
         <v>846</v>
@@ -12420,7 +12420,7 @@
       </c>
       <c r="D84" s="30"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="35"/>
       <c r="B85" s="1" t="s">
         <v>847</v>
@@ -12432,7 +12432,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="38"/>
       <c r="B86" s="12" t="s">
         <v>848</v>
@@ -12459,29 +12459,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C001BC70-93DD-47BA-AC1A-F405FF40FB4C}">
   <dimension ref="A1:D114"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="88" t="s">
+      <c r="B1" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="88"/>
-      <c r="D1" s="89"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C1" s="90"/>
+      <c r="D1" s="91"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
         <v>150</v>
       </c>
@@ -12493,7 +12493,7 @@
       </c>
       <c r="D2" s="18"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="19" t="s">
         <v>149</v>
       </c>
@@ -12501,7 +12501,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="10"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="35" t="s">
         <v>898</v>
       </c>
@@ -12511,7 +12511,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="10"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="21" t="s">
         <v>97</v>
       </c>
@@ -12523,7 +12523,7 @@
       </c>
       <c r="D5" s="10"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="21" t="s">
         <v>96</v>
       </c>
@@ -12535,13 +12535,13 @@
       </c>
       <c r="D6" s="10"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="21"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="21" t="s">
         <v>98</v>
       </c>
@@ -12553,13 +12553,13 @@
       </c>
       <c r="D8" s="10"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="19"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="10"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="19"/>
       <c r="B10" s="20" t="s">
         <v>146</v>
@@ -12567,7 +12567,7 @@
       <c r="C10" s="1"/>
       <c r="D10" s="10"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="77" t="s">
         <v>859</v>
       </c>
@@ -12579,13 +12579,13 @@
       </c>
       <c r="D11" s="10"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="23"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="10"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="19"/>
       <c r="B13" s="20" t="s">
         <v>147</v>
@@ -12593,7 +12593,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="10"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="77" t="s">
         <v>860</v>
       </c>
@@ -12605,13 +12605,13 @@
       </c>
       <c r="D14" s="10"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="23"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="10"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="21" t="s">
         <v>114</v>
       </c>
@@ -12625,7 +12625,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="78" t="s">
         <v>178</v>
       </c>
@@ -12639,7 +12639,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="80" t="s">
         <v>159</v>
       </c>
@@ -12653,7 +12653,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="79" t="s">
         <v>158</v>
       </c>
@@ -12667,7 +12667,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="80" t="s">
         <v>161</v>
       </c>
@@ -12681,7 +12681,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="80" t="s">
         <v>152</v>
       </c>
@@ -12695,7 +12695,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="84" t="s">
         <v>151</v>
       </c>
@@ -12709,7 +12709,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="21" t="s">
         <v>114</v>
       </c>
@@ -12723,7 +12723,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="21" t="s">
         <v>114</v>
       </c>
@@ -12737,7 +12737,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="80" t="s">
         <v>154</v>
       </c>
@@ -12751,7 +12751,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="80" t="s">
         <v>153</v>
       </c>
@@ -12765,7 +12765,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="79" t="s">
         <v>157</v>
       </c>
@@ -12779,7 +12779,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="85" t="s">
         <v>156</v>
       </c>
@@ -12793,7 +12793,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="80" t="s">
         <v>155</v>
       </c>
@@ -12807,7 +12807,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="81" t="s">
         <v>160</v>
       </c>
@@ -12821,267 +12821,267 @@
         <v>127</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B31" s="15"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B32" s="16"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B33" s="16"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="69" t="s">
         <v>894</v>
       </c>
       <c r="B34" s="15"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="71" t="s">
         <v>895</v>
       </c>
       <c r="B35" s="16"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="70" t="s">
         <v>896</v>
       </c>
       <c r="B36" s="15"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="72" t="s">
         <v>897</v>
       </c>
       <c r="B37" s="15"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B38" s="16"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B39" s="15"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B40" s="16"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B41" s="16"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B42" s="16"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B43" s="16"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B44" s="16"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B45" s="16"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B46" s="16"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B47" s="16"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B48" s="16"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B49" s="16"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B50" s="16"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B51" s="16"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B52" s="16"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B53" s="16"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B54" s="16"/>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
     </row>
@@ -13103,29 +13103,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F6342A-2D80-4469-8565-41214B4D408F}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" customWidth="1"/>
+    <col min="1" max="1" width="36.26953125" customWidth="1"/>
     <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="30.26953125" customWidth="1"/>
+    <col min="4" max="4" width="16.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="88"/>
-      <c r="D1" s="89"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C1" s="90"/>
+      <c r="D1" s="91"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="86" t="s">
         <v>195</v>
       </c>
@@ -13137,7 +13137,7 @@
       </c>
       <c r="D2" s="18"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>196</v>
       </c>
@@ -13145,7 +13145,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="10"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="35" t="s">
         <v>898</v>
       </c>
@@ -13155,7 +13155,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="10"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="21" t="s">
         <v>97</v>
       </c>
@@ -13167,7 +13167,7 @@
       </c>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="22" t="s">
         <v>96</v>
       </c>
@@ -13179,13 +13179,13 @@
       </c>
       <c r="D6" s="10"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="22"/>
       <c r="B7" s="8"/>
       <c r="C7" s="1"/>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="22" t="s">
         <v>98</v>
       </c>
@@ -13197,13 +13197,13 @@
       </c>
       <c r="D8" s="10"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="6"/>
       <c r="B9" s="8"/>
       <c r="C9" s="1"/>
       <c r="D9" s="10"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="6"/>
       <c r="B10" s="9" t="s">
         <v>146</v>
@@ -13211,7 +13211,7 @@
       <c r="C10" s="1"/>
       <c r="D10" s="10"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="68" t="s">
         <v>859</v>
       </c>
@@ -13223,13 +13223,13 @@
       </c>
       <c r="D11" s="10"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="25"/>
       <c r="B12" s="8"/>
       <c r="C12" s="1"/>
       <c r="D12" s="10"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
       <c r="B13" s="9" t="s">
         <v>147</v>
@@ -13237,7 +13237,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="10"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="68" t="s">
         <v>860</v>
       </c>
@@ -13249,13 +13249,13 @@
       </c>
       <c r="D14" s="10"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="6"/>
       <c r="B15" s="8"/>
       <c r="C15" s="1"/>
       <c r="D15" s="10"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="65" t="s">
         <v>161</v>
       </c>
@@ -13269,7 +13269,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="65" t="s">
         <v>197</v>
       </c>
@@ -13283,7 +13283,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="66" t="s">
         <v>198</v>
       </c>
@@ -13297,7 +13297,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="65" t="s">
         <v>199</v>
       </c>
@@ -13311,7 +13311,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="82" t="s">
         <v>200</v>
       </c>
@@ -13325,7 +13325,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="65" t="s">
         <v>201</v>
       </c>
@@ -13339,7 +13339,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="65" t="s">
         <v>202</v>
       </c>
@@ -13353,7 +13353,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="67" t="s">
         <v>153</v>
       </c>
@@ -13367,22 +13367,22 @@
         <v>126</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="69" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="71" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="70" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="72" t="s">
         <v>897</v>
       </c>
@@ -13404,28 +13404,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3649116-26AC-48A4-AD4B-21881DC75A76}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" style="28" customWidth="1"/>
-    <col min="2" max="2" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.7265625" style="28" customWidth="1"/>
+    <col min="2" max="2" width="35.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="88" t="s">
+      <c r="B1" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="88"/>
-      <c r="D1" s="89"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C1" s="90"/>
+      <c r="D1" s="91"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="87" t="s">
         <v>215</v>
       </c>
@@ -13437,7 +13437,7 @@
       </c>
       <c r="D2" s="18"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="35" t="s">
         <v>213</v>
       </c>
@@ -13445,7 +13445,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="10"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="35" t="s">
         <v>898</v>
       </c>
@@ -13455,7 +13455,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="10"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="21" t="s">
         <v>97</v>
       </c>
@@ -13467,7 +13467,7 @@
       </c>
       <c r="D5" s="10"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="22" t="s">
         <v>96</v>
       </c>
@@ -13477,13 +13477,13 @@
       <c r="C6" s="1"/>
       <c r="D6" s="10"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="36"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="36" t="s">
         <v>98</v>
       </c>
@@ -13495,13 +13495,13 @@
       </c>
       <c r="D8" s="10"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="35"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="10"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="35"/>
       <c r="B10" s="20" t="s">
         <v>146</v>
@@ -13509,7 +13509,7 @@
       <c r="C10" s="1"/>
       <c r="D10" s="10"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="75" t="s">
         <v>863</v>
       </c>
@@ -13521,13 +13521,13 @@
       </c>
       <c r="D11" s="10"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="37"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="10"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="35"/>
       <c r="B13" s="20" t="s">
         <v>147</v>
@@ -13535,7 +13535,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="10"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="75" t="s">
         <v>861</v>
       </c>
@@ -13547,7 +13547,7 @@
       </c>
       <c r="D14" s="10"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="75" t="s">
         <v>862</v>
       </c>
@@ -13559,14 +13559,14 @@
       </c>
       <c r="D15" s="7"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="35"/>
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
       <c r="D16" s="30"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="98" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="88" t="s">
         <v>221</v>
       </c>
       <c r="B17" s="39" t="s">
@@ -13579,7 +13579,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="73" t="s">
         <v>218</v>
       </c>
@@ -13593,7 +13593,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="36" t="s">
         <v>114</v>
       </c>
@@ -13605,8 +13605,8 @@
       </c>
       <c r="D19" s="30"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="98" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="88" t="s">
         <v>222</v>
       </c>
       <c r="B20" s="39" t="s">
@@ -13619,7 +13619,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="73" t="s">
         <v>153</v>
       </c>
@@ -13633,7 +13633,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="73" t="s">
         <v>217</v>
       </c>
@@ -13647,7 +13647,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="73" t="s">
         <v>216</v>
       </c>
@@ -13661,8 +13661,8 @@
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="98" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="88" t="s">
         <v>220</v>
       </c>
       <c r="B24" s="39" t="s">
@@ -13675,8 +13675,8 @@
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="99" t="s">
+    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="89" t="s">
         <v>219</v>
       </c>
       <c r="B25" s="40" t="s">
@@ -13689,22 +13689,22 @@
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="69" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="71" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="70" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="72" t="s">
         <v>897</v>
       </c>
@@ -13727,29 +13727,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3079F0B1-F749-4A7F-AACF-F27D0EEACDF1}">
   <dimension ref="A1:R65"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y14" sqref="Y14"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="38.5703125" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="38.54296875" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.1796875" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" style="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="88" t="s">
+      <c r="B1" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="88"/>
-      <c r="D1" s="89"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C1" s="90"/>
+      <c r="D1" s="91"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="34" t="s">
         <v>290</v>
       </c>
@@ -13761,13 +13761,13 @@
       </c>
       <c r="D2" s="42"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="35" t="s">
         <v>291</v>
       </c>
       <c r="D3" s="30"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="35" t="s">
         <v>898</v>
       </c>
@@ -13776,7 +13776,7 @@
       </c>
       <c r="D4" s="30"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="21" t="s">
         <v>97</v>
       </c>
@@ -13788,7 +13788,7 @@
       </c>
       <c r="D5" s="30"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="22" t="s">
         <v>96</v>
       </c>
@@ -13806,11 +13806,11 @@
         <v>906</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="36"/>
       <c r="D7" s="30"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="36" t="s">
         <v>98</v>
       </c>
@@ -13822,18 +13822,18 @@
       </c>
       <c r="D8" s="30"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="35"/>
       <c r="D9" s="30"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="35"/>
       <c r="B10" s="20" t="s">
         <v>146</v>
       </c>
       <c r="D10" s="30"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="37" t="s">
         <v>859</v>
       </c>
@@ -13845,18 +13845,18 @@
       </c>
       <c r="D11" s="30"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="37"/>
       <c r="D12" s="30"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="35"/>
       <c r="B13" s="20" t="s">
         <v>147</v>
       </c>
       <c r="D13" s="30"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="37" t="s">
         <v>860</v>
       </c>
@@ -13868,11 +13868,11 @@
       </c>
       <c r="D14" s="30"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" s="35"/>
       <c r="D15" s="30"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" s="36" t="s">
         <v>114</v>
       </c>
@@ -13886,7 +13886,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="36" t="s">
         <v>114</v>
       </c>
@@ -13900,7 +13900,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="36" t="s">
         <v>114</v>
       </c>
@@ -13914,7 +13914,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="36" t="s">
         <v>114</v>
       </c>
@@ -13928,7 +13928,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="36" t="s">
         <v>114</v>
       </c>
@@ -13940,7 +13940,7 @@
       </c>
       <c r="D20" s="30"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="36" t="s">
         <v>114</v>
       </c>
@@ -13952,7 +13952,7 @@
       </c>
       <c r="D21" s="30"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="35" t="s">
         <v>178</v>
       </c>
@@ -13966,7 +13966,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="35" t="s">
         <v>297</v>
       </c>
@@ -13978,7 +13978,7 @@
       </c>
       <c r="D23" s="30"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="35" t="s">
         <v>298</v>
       </c>
@@ -13992,7 +13992,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="35" t="s">
         <v>295</v>
       </c>
@@ -14006,7 +14006,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="35" t="s">
         <v>296</v>
       </c>
@@ -14020,7 +14020,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="35" t="s">
         <v>159</v>
       </c>
@@ -14034,7 +14034,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="35" t="s">
         <v>161</v>
       </c>
@@ -14048,7 +14048,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="35" t="s">
         <v>160</v>
       </c>
@@ -14062,7 +14062,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="35" t="s">
         <v>299</v>
       </c>
@@ -14074,7 +14074,7 @@
       </c>
       <c r="D30" s="30"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="35" t="s">
         <v>293</v>
       </c>
@@ -14088,7 +14088,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="35" t="s">
         <v>294</v>
       </c>
@@ -14102,7 +14102,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="35" t="s">
         <v>292</v>
       </c>
@@ -14116,7 +14116,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="36" t="s">
         <v>114</v>
       </c>
@@ -14128,7 +14128,7 @@
       </c>
       <c r="D34" s="30"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="36" t="s">
         <v>300</v>
       </c>
@@ -14142,7 +14142,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="36" t="s">
         <v>300</v>
       </c>
@@ -14156,7 +14156,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="36" t="s">
         <v>300</v>
       </c>
@@ -14170,7 +14170,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="36" t="s">
         <v>300</v>
       </c>
@@ -14184,7 +14184,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="36" t="s">
         <v>300</v>
       </c>
@@ -14198,7 +14198,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="36" t="s">
         <v>300</v>
       </c>
@@ -14212,7 +14212,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="35" t="s">
         <v>301</v>
       </c>
@@ -14226,7 +14226,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="36" t="s">
         <v>114</v>
       </c>
@@ -14238,7 +14238,7 @@
       </c>
       <c r="D42" s="30"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="35" t="s">
         <v>302</v>
       </c>
@@ -14252,7 +14252,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="35" t="s">
         <v>303</v>
       </c>
@@ -14264,7 +14264,7 @@
       </c>
       <c r="D44" s="30"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="36" t="s">
         <v>114</v>
       </c>
@@ -14278,7 +14278,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="35" t="s">
         <v>304</v>
       </c>
@@ -14292,7 +14292,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="35" t="s">
         <v>305</v>
       </c>
@@ -14306,7 +14306,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="35" t="s">
         <v>201</v>
       </c>
@@ -14320,7 +14320,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="35" t="s">
         <v>306</v>
       </c>
@@ -14334,7 +14334,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="35" t="s">
         <v>202</v>
       </c>
@@ -14348,7 +14348,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="36" t="s">
         <v>114</v>
       </c>
@@ -14360,7 +14360,7 @@
       </c>
       <c r="D51" s="30"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="35" t="s">
         <v>199</v>
       </c>
@@ -14374,7 +14374,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="35" t="s">
         <v>307</v>
       </c>
@@ -14388,7 +14388,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="35" t="s">
         <v>200</v>
       </c>
@@ -14402,7 +14402,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="36" t="s">
         <v>114</v>
       </c>
@@ -14414,7 +14414,7 @@
       </c>
       <c r="D55" s="30"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="35" t="s">
         <v>308</v>
       </c>
@@ -14428,7 +14428,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="36" t="s">
         <v>114</v>
       </c>
@@ -14442,7 +14442,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="36" t="s">
         <v>114</v>
       </c>
@@ -14456,7 +14456,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="35" t="s">
         <v>153</v>
       </c>
@@ -14470,7 +14470,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="36" t="s">
         <v>114</v>
       </c>
@@ -14482,7 +14482,7 @@
       </c>
       <c r="D60" s="30"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="37" t="s">
         <v>310</v>
       </c>
@@ -14496,7 +14496,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="35" t="s">
         <v>309</v>
       </c>
@@ -14510,7 +14510,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="41" t="s">
         <v>114</v>
       </c>
@@ -14524,7 +14524,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="44"/>
     </row>
   </sheetData>
@@ -14544,29 +14544,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6195132D-A0AB-4DA1-AAA6-C73ED7A26C9C}">
   <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="A33" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="R63" sqref="R63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="44.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.453125" style="28" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="88" t="s">
+      <c r="B1" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="88"/>
-      <c r="D1" s="89"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C1" s="90"/>
+      <c r="D1" s="91"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="34" t="s">
         <v>450</v>
       </c>
@@ -14578,13 +14578,13 @@
       </c>
       <c r="D2" s="42"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="35" t="s">
         <v>449</v>
       </c>
       <c r="D3" s="30"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="35" t="s">
         <v>898</v>
       </c>
@@ -14593,7 +14593,7 @@
       </c>
       <c r="D4" s="30"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="21" t="s">
         <v>97</v>
       </c>
@@ -14605,7 +14605,7 @@
       </c>
       <c r="D5" s="30"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="36" t="s">
         <v>96</v>
       </c>
@@ -14614,17 +14614,17 @@
       </c>
       <c r="D6" s="30"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D7" s="30"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="36"/>
       <c r="B8" s="47" t="s">
         <v>184</v>
       </c>
       <c r="D8" s="30"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="36" t="s">
         <v>98</v>
       </c>
@@ -14636,7 +14636,7 @@
       </c>
       <c r="D9" s="30"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="36" t="s">
         <v>98</v>
       </c>
@@ -14648,18 +14648,18 @@
       </c>
       <c r="D10" s="30"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="35"/>
       <c r="D11" s="30"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="35"/>
       <c r="B12" s="47" t="s">
         <v>146</v>
       </c>
       <c r="D12" s="30"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="37" t="s">
         <v>859</v>
       </c>
@@ -14671,7 +14671,7 @@
       </c>
       <c r="D13" s="30"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="36" t="s">
         <v>114</v>
       </c>
@@ -14683,18 +14683,18 @@
       </c>
       <c r="D14" s="30"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="37"/>
       <c r="D15" s="30"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="35"/>
       <c r="B16" s="47" t="s">
         <v>147</v>
       </c>
       <c r="D16" s="30"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="37" t="s">
         <v>860</v>
       </c>
@@ -14706,7 +14706,7 @@
       </c>
       <c r="D17" s="30"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="36" t="s">
         <v>114</v>
       </c>
@@ -14718,11 +14718,11 @@
       </c>
       <c r="D18" s="30"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="35"/>
       <c r="D19" s="30"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="36" t="s">
         <v>98</v>
       </c>
@@ -14734,7 +14734,7 @@
       </c>
       <c r="D20" s="10"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="19" t="s">
         <v>451</v>
       </c>
@@ -14748,7 +14748,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="23" t="s">
         <v>453</v>
       </c>
@@ -14762,7 +14762,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="19" t="s">
         <v>452</v>
       </c>
@@ -14776,7 +14776,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="21" t="s">
         <v>114</v>
       </c>
@@ -14790,7 +14790,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="21" t="s">
         <v>114</v>
       </c>
@@ -14804,7 +14804,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="19" t="s">
         <v>454</v>
       </c>
@@ -14818,7 +14818,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="21" t="s">
         <v>114</v>
       </c>
@@ -14830,7 +14830,7 @@
       </c>
       <c r="D27" s="10"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="21" t="s">
         <v>114</v>
       </c>
@@ -14844,7 +14844,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="19" t="s">
         <v>455</v>
       </c>
@@ -14858,7 +14858,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="19" t="s">
         <v>456</v>
       </c>
@@ -14872,7 +14872,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="19" t="s">
         <v>457</v>
       </c>
@@ -14886,7 +14886,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="19" t="s">
         <v>458</v>
       </c>
@@ -14900,7 +14900,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="19" t="s">
         <v>459</v>
       </c>
@@ -14914,7 +14914,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="36" t="s">
         <v>115</v>
       </c>
@@ -14928,7 +14928,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="36" t="s">
         <v>114</v>
       </c>
@@ -14942,7 +14942,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="36" t="s">
         <v>115</v>
       </c>
@@ -14956,7 +14956,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="36" t="s">
         <v>114</v>
       </c>
@@ -14970,7 +14970,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="36" t="s">
         <v>115</v>
       </c>
@@ -14984,7 +14984,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="36" t="s">
         <v>115</v>
       </c>
@@ -14998,7 +14998,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="19" t="s">
         <v>460</v>
       </c>
@@ -15012,7 +15012,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="21" t="s">
         <v>152</v>
       </c>
@@ -15026,7 +15026,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="21" t="s">
         <v>114</v>
       </c>
@@ -15040,7 +15040,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="21" t="s">
         <v>114</v>
       </c>
@@ -15054,7 +15054,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="21" t="s">
         <v>114</v>
       </c>
@@ -15068,7 +15068,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="21" t="s">
         <v>114</v>
       </c>
@@ -15082,7 +15082,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="21" t="s">
         <v>114</v>
       </c>
@@ -15096,7 +15096,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="21" t="s">
         <v>114</v>
       </c>
@@ -15110,7 +15110,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="21" t="s">
         <v>114</v>
       </c>
@@ -15124,7 +15124,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="21" t="s">
         <v>114</v>
       </c>
@@ -15138,7 +15138,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="19" t="s">
         <v>462</v>
       </c>
@@ -15152,7 +15152,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="19" t="s">
         <v>463</v>
       </c>
@@ -15166,7 +15166,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="21" t="s">
         <v>114</v>
       </c>
@@ -15180,7 +15180,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="21" t="s">
         <v>114</v>
       </c>
@@ -15194,7 +15194,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="19" t="s">
         <v>294</v>
       </c>
@@ -15208,7 +15208,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="19" t="s">
         <v>307</v>
       </c>
@@ -15222,7 +15222,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="21" t="s">
         <v>114</v>
       </c>
@@ -15236,7 +15236,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="21" t="s">
         <v>114</v>
       </c>
@@ -15250,7 +15250,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="21" t="s">
         <v>464</v>
       </c>
@@ -15264,7 +15264,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="21" t="s">
         <v>114</v>
       </c>
@@ -15278,7 +15278,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="21" t="s">
         <v>114</v>
       </c>
@@ -15292,7 +15292,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="21" t="s">
         <v>114</v>
       </c>
@@ -15306,7 +15306,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="21" t="s">
         <v>114</v>
       </c>
@@ -15320,7 +15320,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="21" t="s">
         <v>114</v>
       </c>
@@ -15334,7 +15334,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="21" t="s">
         <v>114</v>
       </c>
@@ -15348,7 +15348,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="19" t="s">
         <v>461</v>
       </c>
@@ -15362,7 +15362,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="21" t="s">
         <v>114</v>
       </c>
@@ -15376,7 +15376,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="21" t="s">
         <v>114</v>
       </c>
@@ -15390,7 +15390,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="21" t="s">
         <v>114</v>
       </c>
@@ -15402,7 +15402,7 @@
       </c>
       <c r="D68" s="10"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="21" t="s">
         <v>114</v>
       </c>
@@ -15414,7 +15414,7 @@
       </c>
       <c r="D69" s="10"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="21" t="s">
         <v>114</v>
       </c>
@@ -15426,7 +15426,7 @@
       </c>
       <c r="D70" s="10"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="21" t="s">
         <v>114</v>
       </c>
@@ -15438,7 +15438,7 @@
       </c>
       <c r="D71" s="10"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="21" t="s">
         <v>114</v>
       </c>
@@ -15452,7 +15452,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="21" t="s">
         <v>114</v>
       </c>
@@ -15464,7 +15464,7 @@
       </c>
       <c r="D73" s="10"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="19" t="s">
         <v>465</v>
       </c>
@@ -15476,7 +15476,7 @@
       </c>
       <c r="D74" s="10"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="19" t="s">
         <v>466</v>
       </c>
@@ -15488,7 +15488,7 @@
       </c>
       <c r="D75" s="10"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="19" t="s">
         <v>467</v>
       </c>
@@ -15502,7 +15502,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="19" t="s">
         <v>468</v>
       </c>
@@ -15516,7 +15516,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="21" t="s">
         <v>114</v>
       </c>
@@ -15528,7 +15528,7 @@
       </c>
       <c r="D78" s="10"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="19" t="s">
         <v>469</v>
       </c>
@@ -15540,7 +15540,7 @@
       </c>
       <c r="D79" s="10"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="19" t="s">
         <v>470</v>
       </c>
@@ -15554,7 +15554,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="21" t="s">
         <v>114</v>
       </c>
@@ -15568,7 +15568,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="21" t="s">
         <v>114</v>
       </c>
@@ -15582,7 +15582,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="19" t="s">
         <v>473</v>
       </c>
@@ -15596,7 +15596,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="19" t="s">
         <v>471</v>
       </c>
@@ -15610,7 +15610,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="19" t="s">
         <v>474</v>
       </c>
@@ -15624,7 +15624,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="19" t="s">
         <v>475</v>
       </c>
@@ -15638,7 +15638,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="19" t="s">
         <v>472</v>
       </c>
@@ -15652,7 +15652,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="21" t="s">
         <v>114</v>
       </c>
@@ -15666,7 +15666,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="21" t="s">
         <v>114</v>
       </c>
@@ -15680,7 +15680,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="21" t="s">
         <v>114</v>
       </c>
@@ -15694,7 +15694,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="23" t="s">
         <v>464</v>
       </c>
@@ -15708,7 +15708,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="21" t="s">
         <v>114</v>
       </c>
@@ -15722,7 +15722,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="21" t="s">
         <v>114</v>
       </c>
@@ -15736,7 +15736,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="21" t="s">
         <v>114</v>
       </c>
@@ -15750,7 +15750,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="21" t="s">
         <v>114</v>
       </c>
@@ -15764,7 +15764,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="21" t="s">
         <v>114</v>
       </c>
@@ -15778,7 +15778,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" s="21" t="s">
         <v>114</v>
       </c>
@@ -15792,7 +15792,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="21" t="s">
         <v>114</v>
       </c>
@@ -15804,7 +15804,7 @@
       </c>
       <c r="D98" s="10"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" s="21" t="s">
         <v>114</v>
       </c>
@@ -15816,7 +15816,7 @@
       </c>
       <c r="D99" s="10"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="19" t="s">
         <v>476</v>
       </c>
@@ -15828,7 +15828,7 @@
       </c>
       <c r="D100" s="10"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="19" t="s">
         <v>477</v>
       </c>
@@ -15840,7 +15840,7 @@
       </c>
       <c r="D101" s="10"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" s="19" t="s">
         <v>478</v>
       </c>
@@ -15852,7 +15852,7 @@
       </c>
       <c r="D102" s="10"/>
     </row>
-    <row r="103" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103" s="49" t="s">
         <v>114</v>
       </c>
@@ -15881,28 +15881,28 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.453125" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" style="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="88" t="s">
+      <c r="B1" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="88"/>
-      <c r="D1" s="89"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C1" s="90"/>
+      <c r="D1" s="91"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="34" t="s">
         <v>487</v>
       </c>
@@ -15914,7 +15914,7 @@
       </c>
       <c r="D2" s="42"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="35" t="s">
         <v>488</v>
       </c>
@@ -15922,7 +15922,7 @@
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="35" t="s">
         <v>898</v>
       </c>
@@ -15932,7 +15932,7 @@
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="37" t="s">
         <v>489</v>
       </c>
@@ -15944,7 +15944,7 @@
       </c>
       <c r="D5" s="30"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="36" t="s">
         <v>114</v>
       </c>
@@ -15956,7 +15956,7 @@
       </c>
       <c r="D6" s="30"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="37" t="s">
         <v>490</v>
       </c>
@@ -15968,7 +15968,7 @@
       </c>
       <c r="D7" s="30"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="36" t="s">
         <v>114</v>
       </c>
@@ -15982,7 +15982,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="41" t="s">
         <v>114</v>
       </c>
@@ -15994,55 +15994,55 @@
       </c>
       <c r="D9" s="32"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C10"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C11"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C12"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C13"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C14"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C15"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C16"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C17"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C18"/>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C19"/>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C20"/>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C21"/>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C22"/>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C23"/>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C24"/>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C25"/>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C26"/>
     </row>
   </sheetData>
@@ -16060,28 +16060,28 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.81640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" style="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="91" t="s">
+      <c r="B1" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="91"/>
-      <c r="D1" s="92"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C1" s="93"/>
+      <c r="D1" s="94"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
         <v>503</v>
       </c>
@@ -16093,13 +16093,13 @@
       </c>
       <c r="D2" s="42"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="19" t="s">
         <v>502</v>
       </c>
       <c r="D3" s="30"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="35" t="s">
         <v>898</v>
       </c>
@@ -16108,7 +16108,7 @@
       </c>
       <c r="D4" s="30"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="21" t="s">
         <v>97</v>
       </c>
@@ -16120,7 +16120,7 @@
       </c>
       <c r="D5" s="30"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="21" t="s">
         <v>96</v>
       </c>
@@ -16132,7 +16132,7 @@
       </c>
       <c r="D6" s="30"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="21" t="s">
         <v>114</v>
       </c>
@@ -16144,7 +16144,7 @@
       </c>
       <c r="D7" s="30"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="21" t="s">
         <v>98</v>
       </c>
@@ -16156,7 +16156,7 @@
       </c>
       <c r="D8" s="30"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="21" t="s">
         <v>114</v>
       </c>
@@ -16165,7 +16165,7 @@
       </c>
       <c r="D9" s="30"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="21" t="s">
         <v>114</v>
       </c>
@@ -16177,7 +16177,7 @@
       </c>
       <c r="D10" s="30"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="19" t="s">
         <v>504</v>
       </c>
@@ -16191,7 +16191,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="19" t="s">
         <v>505</v>
       </c>
@@ -16205,7 +16205,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="19" t="s">
         <v>506</v>
       </c>
@@ -16219,7 +16219,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="19" t="s">
         <v>507</v>
       </c>
@@ -16233,7 +16233,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="19" t="s">
         <v>508</v>
       </c>
@@ -16247,7 +16247,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="19" t="s">
         <v>509</v>
       </c>
@@ -16261,7 +16261,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="48" t="s">
         <v>510</v>
       </c>
@@ -16275,7 +16275,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E23" t="s">
         <v>597</v>
       </c>
@@ -16294,29 +16294,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8053A036-1D51-419B-9C0B-51D684852F7A}">
   <dimension ref="A1:D136"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.5703125" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.54296875" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" style="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="93" t="s">
+      <c r="B1" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="91"/>
-      <c r="D1" s="92"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C1" s="93"/>
+      <c r="D1" s="94"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
         <v>503</v>
       </c>
@@ -16328,14 +16328,14 @@
       </c>
       <c r="D2" s="42"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="19" t="s">
         <v>502</v>
       </c>
       <c r="B3" s="53"/>
       <c r="D3" s="30"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="35" t="s">
         <v>898</v>
       </c>
@@ -16347,7 +16347,7 @@
       </c>
       <c r="D4" s="30"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="21" t="s">
         <v>114</v>
       </c>
@@ -16359,12 +16359,12 @@
       </c>
       <c r="D5" s="30"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="21"/>
       <c r="B6" s="53"/>
       <c r="D6" s="30"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="23" t="s">
         <v>574</v>
       </c>
@@ -16378,7 +16378,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="23" t="s">
         <v>575</v>
       </c>
@@ -16392,7 +16392,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="19" t="s">
         <v>577</v>
       </c>
@@ -16404,7 +16404,7 @@
       </c>
       <c r="D9" s="30"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="19" t="s">
         <v>594</v>
       </c>
@@ -16418,7 +16418,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="21" t="s">
         <v>114</v>
       </c>
@@ -16432,7 +16432,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="21" t="s">
         <v>114</v>
       </c>
@@ -16446,7 +16446,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="21" t="s">
         <v>114</v>
       </c>
@@ -16460,7 +16460,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="21" t="s">
         <v>598</v>
       </c>
@@ -16472,7 +16472,7 @@
       </c>
       <c r="D14" s="30"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="21" t="s">
         <v>114</v>
       </c>
@@ -16486,7 +16486,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="21" t="s">
         <v>114</v>
       </c>
@@ -16500,7 +16500,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="21" t="s">
         <v>114</v>
       </c>
@@ -16514,7 +16514,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="19" t="s">
         <v>602</v>
       </c>
@@ -16528,7 +16528,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="21" t="s">
         <v>114</v>
       </c>
@@ -16542,7 +16542,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="21" t="s">
         <v>114</v>
       </c>
@@ -16556,7 +16556,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="19" t="s">
         <v>603</v>
       </c>
@@ -16570,7 +16570,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="21" t="s">
         <v>114</v>
       </c>
@@ -16584,7 +16584,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="19" t="s">
         <v>604</v>
       </c>
@@ -16598,7 +16598,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="19" t="s">
         <v>605</v>
       </c>
@@ -16612,7 +16612,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="19" t="s">
         <v>606</v>
       </c>
@@ -16626,7 +16626,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="23" t="s">
         <v>576</v>
       </c>
@@ -16638,7 +16638,7 @@
       </c>
       <c r="D26" s="30"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="21" t="s">
         <v>114</v>
       </c>
@@ -16650,7 +16650,7 @@
       </c>
       <c r="D27" s="30"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="21" t="s">
         <v>114</v>
       </c>
@@ -16662,7 +16662,7 @@
       </c>
       <c r="D28" s="30"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="23" t="s">
         <v>596</v>
       </c>
@@ -16676,7 +16676,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="23" t="s">
         <v>595</v>
       </c>
@@ -16690,7 +16690,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="21" t="s">
         <v>114</v>
       </c>
@@ -16704,7 +16704,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="19" t="s">
         <v>607</v>
       </c>
@@ -16718,7 +16718,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="19" t="s">
         <v>599</v>
       </c>
@@ -16732,7 +16732,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="19" t="s">
         <v>600</v>
       </c>
@@ -16746,7 +16746,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="19" t="s">
         <v>601</v>
       </c>
@@ -16760,7 +16760,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="21" t="s">
         <v>114</v>
       </c>
@@ -16772,7 +16772,7 @@
       </c>
       <c r="D36" s="30"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="21" t="s">
         <v>114</v>
       </c>
@@ -16786,7 +16786,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="21" t="s">
         <v>114</v>
       </c>
@@ -16800,7 +16800,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="21" t="s">
         <v>114</v>
       </c>
@@ -16814,7 +16814,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="19" t="s">
         <v>608</v>
       </c>
@@ -16828,7 +16828,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="21" t="s">
         <v>114</v>
       </c>
@@ -16842,7 +16842,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="21" t="s">
         <v>114</v>
       </c>
@@ -16856,7 +16856,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="48" t="s">
         <v>609</v>
       </c>
@@ -16870,8 +16870,8 @@
         <v>591</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="17" t="s">
         <v>616</v>
       </c>
@@ -16885,7 +16885,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="19" t="s">
         <v>617</v>
       </c>
@@ -16899,7 +16899,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="19" t="s">
         <v>618</v>
       </c>
@@ -16913,7 +16913,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="19" t="s">
         <v>619</v>
       </c>
@@ -16927,7 +16927,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="21" t="s">
         <v>114</v>
       </c>
@@ -16941,7 +16941,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="49" t="s">
         <v>114</v>
       </c>
@@ -16955,73 +16955,73 @@
         <v>127</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C51" s="51"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C52" s="51"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C53" s="51"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C54" s="51"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C55" s="51"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C56" s="51"/>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C98" s="51"/>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C99" s="51"/>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C100" s="51"/>
     </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C101" s="51"/>
     </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C102" s="51"/>
     </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C103" s="51"/>
     </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C104" s="51"/>
     </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C115" s="51"/>
     </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C117" s="51"/>
     </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C118" s="51"/>
     </row>
-    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C119" s="51"/>
     </row>
-    <row r="120" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C120" s="51"/>
     </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C131" s="51"/>
     </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C133" s="51"/>
     </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C134" s="51"/>
     </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C135" s="51"/>
     </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C136" s="51"/>
     </row>
   </sheetData>
